--- a/medicine/Enfance/Bibliothèque_de_la_jeunesse/Bibliothèque_de_la_jeunesse.xlsx
+++ b/medicine/Enfance/Bibliothèque_de_la_jeunesse/Bibliothèque_de_la_jeunesse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Biblioth%C3%A8que_de_la_jeunesse</t>
+          <t>Bibliothèque_de_la_jeunesse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Bibliothèque de la jeunesse est une collection française de livres créée et éditée par les éditions Hachette de 1923 à 1963, destinée aux enfants et préadolescents. 
 La collection compte parmi ses auteurs Jules Verne, Charles Dickens, Arthur Conan Doyle, etc. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Biblioth%C3%A8que_de_la_jeunesse</t>
+          <t>Bibliothèque_de_la_jeunesse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">De 1955 à 1969, parallèlement aux volumes cartonnés de la « Bibliothèque verte », Hachette publie simultanément des éditions souples bon marché mais de piètre qualité : la collection « Bibliothèque de la jeunesse » qui reprend les titres parus dans la « Bibliothèque verte ». 
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Biblioth%C3%A8que_de_la_jeunesse</t>
+          <t>Bibliothèque_de_la_jeunesse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Aspect des livres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>En dehors de l’inscription « Bibliothèque de la jeunesse » figurant en lettres bleues sur le haut de la couverture, et de l'absence de cartonnage, cette collection est la copie conforme de la « Bibliothèque verte ». 
 Jusqu'en 1958, le cahier sera enveloppé d'une jaquette en couleur portant la même illustration de couverture que celle parue dans la Bibliothèque verte.
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Biblioth%C3%A8que_de_la_jeunesse</t>
+          <t>Bibliothèque_de_la_jeunesse</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Hachette Jeunesse</t>
         </is>
